--- a/medicine/Pharmacie/Georges_Serullas/Georges_Serullas.xlsx
+++ b/medicine/Pharmacie/Georges_Serullas/Georges_Serullas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Simon Serullas, né le 2 novembre 1774 à Poncin et mort le 25 mai 1832 à Paris, est un professeur de chimie, pharmacien en chef des armées, d'abord dans les campagnes napoléoniennes, puis à l'hôpital d'instruction de Metz de 1816 à 1825 et à l'hôpital du Val-de-Grâce, professeur de chimie au Jardin des plantes, et membre de l'Académie des sciences (élu membre le 28 décembre 1829 - section de chimie).
 Il est fait chevalier de la Légion d'honneur avant 1820 puis officier.
 Il est, entre autres, le premier à avoir mis en évidence la réaction haloforme. En 1822, il prépare l'iodoforme (ou triiodométhane), précipité jaune à l'odeur un peu safranée caractéristique et utilisé comme antiseptique.
-Il est inhumé au cimetière du Père-Lachaise (10e division)[1].
+Il est inhumé au cimetière du Père-Lachaise (10e division).
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Observations physico-chimiques sur les alliages du potassium et du sodium avec d’autrs métaux ; propriétés nouvelles de ces alliages servant à expliquer le phénomène de l’inflammation spontanée du pyrophore et la cause des mouvemens du camphre sur l’eau. Antimoine arsenical dans le commerce. Metz, Antoine, septembre 1820.
 Second mémoire sur les alliages du potassium et sur l’existence de l’arsenic dans les préparations antimoniales usitées en médecine. Metz, Antoine, mai 1821.
